--- a/biology/Zoologie/Acanthurus_achilles/Acanthurus_achilles.xlsx
+++ b/biology/Zoologie/Acanthurus_achilles/Acanthurus_achilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthurus achilles, le chirurgien d'Achille, est un poisson présent dans les eaux du Pacifique. Il appartient à la famille des Acanthuridae (poissons-chirurgiens) nommés ainsi en raison de la présence d'un "scalpel" à la base de la queue.
 </t>
@@ -511,7 +523,9 @@
           <t>Description morphologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthurus achilles possède une robe oscillant entre le brun foncé et le noir. 
 Sa tache arrière est orange mais peut également être plus rougeâtre notamment pour les morphes de Polynésie française. Cette tache en forme de goutte est utile non seulement pour détourner l'attaque des prédateurs en simulant un œil mais elle permet également de dissimuler le "scalpel" érectile propre aux Achanthuridae. Cette tache n'est pas présente chez les juvéniles mais grandit avec l'animal.
@@ -544,7 +558,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthurus achilles est observable dans l'océan Pacifique depuis les îles d'Hawaii jusqu'en Australie en passant par la Nouvelle-Calédonie, la Polynésie française et les îles de la Micronésie.
 </t>
@@ -575,7 +591,9 @@
           <t>Mode de vie, régime alimentaire et reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthurus achilles vit en groupe épars le long des récifs et des tombants océaniques. Il apprécie les eaux claires et brassées par un courant important. 
 Il passe une grande partie de sa journée à se nourrir en cherchant les algues filamenteuses à la base de son régime alimentaire dans les anfractuosités du récif. Ce processus permet une régulation des algues et protégeant par la même occasion les coraux.
@@ -610,7 +628,9 @@
           <t>Acanthurus achilles en captivité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthurus achilles représente un défi pour les amateurs d'aquariums. C'est un poisson très fragile, très difficile à nourrir et très sensible aux maladies de peau. Il est fortement déconseillé aux débutants.
 Il présentera un comportement très agressif envers ses congénères mais également vis-à-vis des individus se rapprochant par leur forme ou leur taille. Les combats peuvent être mortels.
